--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.036455333333334</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H2">
-        <v>6.109366000000001</v>
+        <v>0.655303</v>
       </c>
       <c r="I2">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="J2">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>25.42986033333334</v>
+        <v>0.03475766666666667</v>
       </c>
       <c r="N2">
-        <v>76.28958100000001</v>
+        <v>0.104273</v>
       </c>
       <c r="O2">
-        <v>0.9199866268977179</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="P2">
-        <v>0.919986626897718</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="Q2">
-        <v>51.78677470173846</v>
+        <v>0.007592267746555555</v>
       </c>
       <c r="R2">
-        <v>466.0809723156461</v>
+        <v>0.06833040971899999</v>
       </c>
       <c r="S2">
-        <v>0.04816246469445642</v>
+        <v>0.0004635683384161584</v>
       </c>
       <c r="T2">
-        <v>0.04816246469445642</v>
+        <v>0.0004635683384161584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,46 +599,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.036455333333334</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H3">
-        <v>6.109366000000001</v>
+        <v>0.655303</v>
       </c>
       <c r="I3">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="J3">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03475766666666667</v>
+        <v>0.2728686666666666</v>
       </c>
       <c r="N3">
-        <v>0.104273</v>
+        <v>0.8186059999999999</v>
       </c>
       <c r="O3">
-        <v>0.001257442553610377</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="P3">
-        <v>0.001257442553610377</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="Q3">
-        <v>0.07078243565755556</v>
+        <v>0.05960388529088888</v>
       </c>
       <c r="R3">
-        <v>0.637041920918</v>
+        <v>0.5364349676179999</v>
       </c>
       <c r="S3">
-        <v>6.582870970395096E-05</v>
+        <v>0.00363929131450613</v>
       </c>
       <c r="T3">
-        <v>6.582870970395096E-05</v>
+        <v>0.003639291314506131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.036455333333334</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H4">
-        <v>6.109366000000001</v>
+        <v>0.655303</v>
       </c>
       <c r="I4">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="J4">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6019623333333334</v>
+        <v>0.3234433333333333</v>
       </c>
       <c r="N4">
-        <v>1.805887</v>
+        <v>0.9703299999999999</v>
       </c>
       <c r="O4">
-        <v>0.02177744153147779</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="P4">
-        <v>0.02177744153147779</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="Q4">
-        <v>1.225869404182445</v>
+        <v>0.07065112888777776</v>
       </c>
       <c r="R4">
-        <v>11.032824637642</v>
+        <v>0.6358601599899999</v>
       </c>
       <c r="S4">
-        <v>0.001140076636148753</v>
+        <v>0.00431381341109732</v>
       </c>
       <c r="T4">
-        <v>0.001140076636148753</v>
+        <v>0.004313813411097321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.199828</v>
+      </c>
+      <c r="H5">
+        <v>12.599484</v>
+      </c>
+      <c r="I5">
+        <v>0.1618270290283213</v>
+      </c>
+      <c r="J5">
+        <v>0.1618270290283213</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>2.036455333333334</v>
-      </c>
-      <c r="H5">
-        <v>6.109366000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.05235126607966554</v>
-      </c>
-      <c r="J5">
-        <v>0.05235126607966553</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.574974</v>
+        <v>0.03475766666666667</v>
       </c>
       <c r="N5">
-        <v>4.724921999999999</v>
+        <v>0.104273</v>
       </c>
       <c r="O5">
-        <v>0.05697848901719382</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="P5">
-        <v>0.05697848901719382</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="Q5">
-        <v>3.207364202161334</v>
+        <v>0.1459762216813333</v>
       </c>
       <c r="R5">
-        <v>28.866277819452</v>
+        <v>1.313785995132</v>
       </c>
       <c r="S5">
-        <v>0.002982896039356414</v>
+        <v>0.008913009497562154</v>
       </c>
       <c r="T5">
-        <v>0.002982896039356414</v>
+        <v>0.008913009497562156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>12.599484</v>
       </c>
       <c r="I6">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="J6">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>25.42986033333334</v>
+        <v>0.2728686666666666</v>
       </c>
       <c r="N6">
-        <v>76.28958100000001</v>
+        <v>0.8186059999999999</v>
       </c>
       <c r="O6">
-        <v>0.9199866268977179</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="P6">
-        <v>0.919986626897718</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="Q6">
-        <v>106.8010394640227</v>
+        <v>1.146001466589333</v>
       </c>
       <c r="R6">
-        <v>961.2093551762042</v>
+        <v>10.314013199304</v>
       </c>
       <c r="S6">
-        <v>0.09932654277356578</v>
+        <v>0.06997250537302431</v>
       </c>
       <c r="T6">
-        <v>0.09932654277356578</v>
+        <v>0.06997250537302432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>12.599484</v>
       </c>
       <c r="I7">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="J7">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03475766666666667</v>
+        <v>0.3234433333333333</v>
       </c>
       <c r="N7">
-        <v>0.104273</v>
+        <v>0.9703299999999999</v>
       </c>
       <c r="O7">
-        <v>0.001257442553610377</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="P7">
-        <v>0.001257442553610377</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="Q7">
-        <v>0.1459762216813333</v>
+        <v>1.358406367746667</v>
       </c>
       <c r="R7">
-        <v>1.313785995132</v>
+        <v>12.22565730972</v>
       </c>
       <c r="S7">
-        <v>0.0001357600403471612</v>
+        <v>0.08294151415773482</v>
       </c>
       <c r="T7">
-        <v>0.0001357600403471612</v>
+        <v>0.08294151415773483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.199828</v>
+        <v>3.307112333333333</v>
       </c>
       <c r="H8">
-        <v>12.599484</v>
+        <v>9.921336999999999</v>
       </c>
       <c r="I8">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="J8">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918513</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6019623333333334</v>
+        <v>0.03475766666666667</v>
       </c>
       <c r="N8">
-        <v>1.805887</v>
+        <v>0.104273</v>
       </c>
       <c r="O8">
-        <v>0.02177744153147779</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="P8">
-        <v>0.02177744153147779</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="Q8">
-        <v>2.528138262478667</v>
+        <v>0.1149475081112222</v>
       </c>
       <c r="R8">
-        <v>22.753244362308</v>
+        <v>1.034527573001</v>
       </c>
       <c r="S8">
-        <v>0.002351205892056562</v>
+        <v>0.007018459717041968</v>
       </c>
       <c r="T8">
-        <v>0.002351205892056562</v>
+        <v>0.007018459717041969</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.199828</v>
+        <v>3.307112333333333</v>
       </c>
       <c r="H9">
-        <v>12.599484</v>
+        <v>9.921336999999999</v>
       </c>
       <c r="I9">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="J9">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918513</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.574974</v>
+        <v>0.2728686666666666</v>
       </c>
       <c r="N9">
-        <v>4.724921999999999</v>
+        <v>0.8186059999999999</v>
       </c>
       <c r="O9">
-        <v>0.05697848901719382</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="P9">
-        <v>0.05697848901719382</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="Q9">
-        <v>6.614619904472</v>
+        <v>0.9024073329135553</v>
       </c>
       <c r="R9">
-        <v>59.53157914024799</v>
+        <v>8.121665996221999</v>
       </c>
       <c r="S9">
-        <v>0.00615169412366758</v>
+        <v>0.05509914584915421</v>
       </c>
       <c r="T9">
-        <v>0.00615169412366758</v>
+        <v>0.05509914584915421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.620790333333333</v>
+        <v>3.307112333333333</v>
       </c>
       <c r="H10">
-        <v>7.862371</v>
+        <v>9.921336999999999</v>
       </c>
       <c r="I10">
-        <v>0.06737279715080845</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="J10">
-        <v>0.06737279715080843</v>
+        <v>0.1274290669918513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>25.42986033333334</v>
+        <v>0.3234433333333333</v>
       </c>
       <c r="N10">
-        <v>76.28958100000001</v>
+        <v>0.9703299999999999</v>
       </c>
       <c r="O10">
-        <v>0.9199866268977179</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="P10">
-        <v>0.919986626897718</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="Q10">
-        <v>66.64633213961679</v>
+        <v>1.069663436801111</v>
       </c>
       <c r="R10">
-        <v>599.8169892565511</v>
+        <v>9.626970931209998</v>
       </c>
       <c r="S10">
-        <v>0.06198207239543645</v>
+        <v>0.06531146142565507</v>
       </c>
       <c r="T10">
-        <v>0.06198207239543644</v>
+        <v>0.06531146142565508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.620790333333333</v>
+        <v>18.22719966666667</v>
       </c>
       <c r="H11">
-        <v>7.862371</v>
+        <v>54.681599</v>
       </c>
       <c r="I11">
-        <v>0.06737279715080845</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="J11">
-        <v>0.06737279715080843</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,27 +1119,27 @@
         <v>0.104273</v>
       </c>
       <c r="O11">
-        <v>0.001257442553610377</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="P11">
-        <v>0.001257442553610377</v>
+        <v>0.05507738448317117</v>
       </c>
       <c r="Q11">
-        <v>0.09109255680922222</v>
+        <v>0.6335349302807778</v>
       </c>
       <c r="R11">
-        <v>0.819833011283</v>
+        <v>5.701814372527</v>
       </c>
       <c r="S11">
-        <v>8.471742209318653E-05</v>
+        <v>0.03868234693015089</v>
       </c>
       <c r="T11">
-        <v>8.471742209318652E-05</v>
+        <v>0.03868234693015089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.620790333333333</v>
+        <v>18.22719966666667</v>
       </c>
       <c r="H12">
-        <v>7.862371</v>
+        <v>54.681599</v>
       </c>
       <c r="I12">
-        <v>0.06737279715080845</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="J12">
-        <v>0.06737279715080843</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6019623333333334</v>
+        <v>0.2728686666666666</v>
       </c>
       <c r="N12">
-        <v>1.805887</v>
+        <v>0.8186059999999999</v>
       </c>
       <c r="O12">
-        <v>0.02177744153147779</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="P12">
-        <v>0.02177744153147779</v>
+        <v>0.4323907186158528</v>
       </c>
       <c r="Q12">
-        <v>1.577617064230778</v>
+        <v>4.973631670110445</v>
       </c>
       <c r="R12">
-        <v>14.198553578077</v>
+        <v>44.76268503099399</v>
       </c>
       <c r="S12">
-        <v>0.001467207150763844</v>
+        <v>0.3036797760791681</v>
       </c>
       <c r="T12">
-        <v>0.001467207150763844</v>
+        <v>0.3036797760791681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.620790333333333</v>
+        <v>18.22719966666667</v>
       </c>
       <c r="H13">
-        <v>7.862371</v>
+        <v>54.681599</v>
       </c>
       <c r="I13">
-        <v>0.06737279715080845</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="J13">
-        <v>0.06737279715080843</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.574974</v>
+        <v>0.3234433333333333</v>
       </c>
       <c r="N13">
-        <v>4.724921999999999</v>
+        <v>0.9703299999999999</v>
       </c>
       <c r="O13">
-        <v>0.05697848901719382</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="P13">
-        <v>0.05697848901719382</v>
+        <v>0.512531896900976</v>
       </c>
       <c r="Q13">
-        <v>4.127676634451333</v>
+        <v>5.895466217518889</v>
       </c>
       <c r="R13">
-        <v>37.14908971006199</v>
+        <v>53.05919595766999</v>
       </c>
       <c r="S13">
-        <v>0.003838800182514966</v>
+        <v>0.3599651079064888</v>
       </c>
       <c r="T13">
-        <v>0.003838800182514966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>30.042756</v>
-      </c>
-      <c r="H14">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I14">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J14">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>25.42986033333334</v>
-      </c>
-      <c r="N14">
-        <v>76.28958100000001</v>
-      </c>
-      <c r="O14">
-        <v>0.9199866268977179</v>
-      </c>
-      <c r="P14">
-        <v>0.919986626897718</v>
-      </c>
-      <c r="Q14">
-        <v>763.9830891084121</v>
-      </c>
-      <c r="R14">
-        <v>6875.847801975709</v>
-      </c>
-      <c r="S14">
-        <v>0.7105155470342593</v>
-      </c>
-      <c r="T14">
-        <v>0.7105155470342593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>30.042756</v>
-      </c>
-      <c r="H15">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I15">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J15">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.03475766666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.104273</v>
-      </c>
-      <c r="O15">
-        <v>0.001257442553610377</v>
-      </c>
-      <c r="P15">
-        <v>0.001257442553610377</v>
-      </c>
-      <c r="Q15">
-        <v>1.044216098796</v>
-      </c>
-      <c r="R15">
-        <v>9.397944889164</v>
-      </c>
-      <c r="S15">
-        <v>0.0009711363814660787</v>
-      </c>
-      <c r="T15">
-        <v>0.0009711363814660787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.042756</v>
-      </c>
-      <c r="H16">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I16">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J16">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6019623333333334</v>
-      </c>
-      <c r="N16">
-        <v>1.805887</v>
-      </c>
-      <c r="O16">
-        <v>0.02177744153147779</v>
-      </c>
-      <c r="P16">
-        <v>0.02177744153147779</v>
-      </c>
-      <c r="Q16">
-        <v>18.084607501524</v>
-      </c>
-      <c r="R16">
-        <v>162.761467513716</v>
-      </c>
-      <c r="S16">
-        <v>0.01681895185250863</v>
-      </c>
-      <c r="T16">
-        <v>0.01681895185250863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>30.042756</v>
-      </c>
-      <c r="H17">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I17">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J17">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.574974</v>
-      </c>
-      <c r="N17">
-        <v>4.724921999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.05697848901719382</v>
-      </c>
-      <c r="P17">
-        <v>0.05697848901719382</v>
-      </c>
-      <c r="Q17">
-        <v>47.31655958834399</v>
-      </c>
-      <c r="R17">
-        <v>425.8490362950959</v>
-      </c>
-      <c r="S17">
-        <v>0.04400509867165486</v>
-      </c>
-      <c r="T17">
-        <v>0.04400509867165486</v>
+        <v>0.3599651079064888</v>
       </c>
     </row>
   </sheetData>
